--- a/data/test_case_3.xlsx
+++ b/data/test_case_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B001A51-CE99-CB44-8918-A5DCAD424E29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E034F36-3182-6044-83DB-C4108F388015}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="500" windowWidth="27640" windowHeight="15920" xr2:uid="{B0A56091-3EEA-834B-8B89-98F25238C973}"/>
+    <workbookView xWindow="7680" yWindow="500" windowWidth="27640" windowHeight="15920" xr2:uid="{B0A56091-3EEA-834B-8B89-98F25238C973}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>R26</t>
   </si>
   <si>
-    <t>Atlantis</t>
-  </si>
-  <si>
     <t>Brobdingnag</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Foremz</t>
+  </si>
+  <si>
+    <t>self</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +538,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>35</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4">
         <v>30</v>

--- a/data/test_case_3.xlsx
+++ b/data/test_case_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E034F36-3182-6044-83DB-C4108F388015}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F110E513-E421-5743-B76E-BAC8792E4EE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="500" windowWidth="27640" windowHeight="15920" xr2:uid="{B0A56091-3EEA-834B-8B89-98F25238C973}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15920" xr2:uid="{B0A56091-3EEA-834B-8B89-98F25238C973}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Country</t>
   </si>
@@ -45,24 +45,6 @@
     <t>R3</t>
   </si>
   <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
     <t>R21</t>
   </si>
   <si>
@@ -73,12 +55,6 @@
   </si>
   <si>
     <t>R24</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>R26</t>
   </si>
   <si>
     <t>Brobdingnag</t>
@@ -481,7 +457,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,34 +487,10 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>35</v>
@@ -553,42 +505,18 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>40</v>
-      </c>
-      <c r="I2">
-        <v>38</v>
-      </c>
-      <c r="J2">
-        <v>40</v>
-      </c>
-      <c r="K2">
-        <v>20</v>
-      </c>
-      <c r="L2">
-        <v>15</v>
-      </c>
-      <c r="M2">
-        <v>40</v>
-      </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
-      <c r="O2">
-        <v>20</v>
-      </c>
-      <c r="P2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -606,39 +534,15 @@
         <v>15</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H3">
-        <v>45</v>
-      </c>
-      <c r="I3">
-        <v>29</v>
-      </c>
-      <c r="J3">
-        <v>30</v>
-      </c>
-      <c r="K3">
-        <v>15</v>
-      </c>
-      <c r="L3">
-        <v>15</v>
-      </c>
-      <c r="M3">
-        <v>45</v>
-      </c>
-      <c r="N3">
-        <v>20</v>
-      </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
-      <c r="P3">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -650,45 +554,21 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
         <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4">
         <v>30</v>
@@ -700,41 +580,25 @@
         <v>3</v>
       </c>
       <c r="E5" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H5" s="4">
-        <v>14</v>
-      </c>
-      <c r="I5" s="4">
-        <v>16</v>
-      </c>
-      <c r="J5" s="4">
-        <v>2</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>3</v>
-      </c>
-      <c r="N5" s="4">
         <v>4</v>
       </c>
-      <c r="O5" s="4">
-        <v>5</v>
-      </c>
-      <c r="P5" s="4">
-        <v>6</v>
-      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/test_case_3.xlsx
+++ b/data/test_case_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F110E513-E421-5743-B76E-BAC8792E4EE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66DB171-8109-8641-8293-DF471B908C17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15920" xr2:uid="{B0A56091-3EEA-834B-8B89-98F25238C973}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Country</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>self</t>
+  </si>
+  <si>
+    <t>Disaster</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,6 +490,9 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -513,6 +519,9 @@
       <c r="H2">
         <v>10</v>
       </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -539,6 +548,9 @@
       <c r="H3">
         <v>20</v>
       </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -565,6 +577,9 @@
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -591,7 +606,9 @@
       <c r="H5" s="4">
         <v>4</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
